--- a/ITProjectManagement/0_0_1_StudentAppMVP/ProductBacklog.xlsx
+++ b/ITProjectManagement/0_0_1_StudentAppMVP/ProductBacklog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\ITProjectManagement\BA\0_0_1_StudentAppMVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\ITProjectManagement\0_0_1_StudentAppMVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="13Apr" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">WebProdBacklog!$A$1:$M$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">WebProdBacklog!$A$1:$M$62</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -703,7 +703,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="337">
   <si>
     <t>Anodiam</t>
   </si>
@@ -3102,12 +3102,6 @@
     <t>Enabler</t>
   </si>
   <si>
-    <t>User registration fields (username, password, email) may contain personal information and must be encrypted at rest and inflight at all times</t>
-  </si>
-  <si>
-    <t>Cyber Security, Non-negotiable</t>
-  </si>
-  <si>
     <t>Unsigned User</t>
   </si>
   <si>
@@ -3359,30 +3353,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Fill up all the fields: (username, password, confirm password, email) (all mandatory) with valid informations in the registration section of the Student Registration Page and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Register </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>button.</t>
-    </r>
-  </si>
-  <si>
     <t>3.4.1</t>
   </si>
   <si>
@@ -3688,148 +3658,6 @@
   </si>
   <si>
     <t>3.2.2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>register myself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as a student with anodiam.com. Upon successful registration, I get a  message on top of the registration page saying </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Student registration successful!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I fill up all the fields: (username, password, confirm password, email) (all mandatory) in the registration section of the Student Registration Page with valid inputs and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Register </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to register myself as a student with anodiam.com. Upon successful registration, I get a  message on top of the registration page saying </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Student registration successful!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -4806,7 +4634,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>index</t>
+      <t>registration</t>
     </r>
     <r>
       <rPr>
@@ -4834,73 +4662,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> containing link to register and a login section.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Register here</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link on the index page of anodiam.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can view the Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>registration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> containing a link to login page (Already registered? </t>
     </r>
     <r>
@@ -4921,124 +4682,6 @@
         <family val="2"/>
       </rPr>
       <t>) and a registration section.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I type anodiam.com on a web browser
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to view the Anodiam index page: containing </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>link to register</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Not yet registered? </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Register here</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) and a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>login section</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
     </r>
   </si>
   <si>
@@ -6245,105 +5888,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Register here</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link on the index / login page of anodiam.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to view the Anodiam registration page: containing a link to login page (Already registered? </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Login here</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) and a registration section. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">I can view the Anodiam </t>
     </r>
     <r>
@@ -9140,6 +8684,494 @@
   </si>
   <si>
     <t>Task Estimate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can view the Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> containing link to register and a login section.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I type anodiam.com on a web browser
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the Anodiam login page: containing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>link to register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Not yet registered? </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Register here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) and a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>login section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Register here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link on the login page of anodiam.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Register here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link on the login page of anodiam.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the Anodiam registration page: containing a link to login page (Already registered? </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Login here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) and a registration section. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fill up all the fields: (First Name, Last Name, email, username, password, confirm password) (all mandatory) with valid informations in the registration section of the Student Registration Page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. Upon successful registration I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>must be logged in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (getting a JWT Token) and forwarded to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> my profile page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I fill up all the fields: (First Name, Last Name, email, username, password, confirm password) (all mandatory)  in the registration section of the Student Registration Page with valid inputs and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to register myself as a student with anodiam.com. Upon successful registration I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>must be logged in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (getting a JWT Token) and forwarded to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>my profile page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9829,7 +9861,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>17</v>
@@ -9856,12 +9888,12 @@
       </c>
       <c r="D2" s="42"/>
       <c r="E2" s="42" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
       <c r="H2" s="42" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I2" s="42">
         <v>2</v>
@@ -9892,12 +9924,12 @@
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
       <c r="H3" s="42" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I3" s="42">
         <v>2</v>
@@ -9928,12 +9960,12 @@
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="42" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="H4" s="42" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I4" s="42">
         <v>2</v>
@@ -9964,12 +9996,12 @@
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
       <c r="H5" s="42" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I5" s="42">
         <v>2</v>
@@ -10000,12 +10032,12 @@
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="42" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
       <c r="H6" s="42" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I6" s="42">
         <v>2</v>
@@ -10036,7 +10068,7 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10059,7 +10091,7 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10082,7 +10114,7 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -10105,7 +10137,7 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -10128,7 +10160,7 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -10151,7 +10183,7 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -10174,7 +10206,7 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -10197,7 +10229,7 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -10220,7 +10252,7 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -10243,7 +10275,7 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -10266,7 +10298,7 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -10289,7 +10321,7 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -10312,7 +10344,7 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -10337,16 +10369,16 @@
         <v>27</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="10"/>
@@ -10368,16 +10400,16 @@
         <v>27</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="10"/>
@@ -10399,16 +10431,16 @@
         <v>27</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="10"/>
@@ -10430,16 +10462,16 @@
         <v>27</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="10"/>
@@ -10461,16 +10493,16 @@
         <v>27</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="10"/>
@@ -10492,16 +10524,16 @@
         <v>27</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="10"/>
@@ -10523,16 +10555,16 @@
         <v>27</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="10"/>
@@ -10554,16 +10586,16 @@
         <v>27</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="10"/>
@@ -10585,16 +10617,16 @@
         <v>27</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="10"/>
@@ -10616,16 +10648,16 @@
         <v>27</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="H29" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="10"/>
@@ -10647,16 +10679,16 @@
         <v>27</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="10"/>
@@ -10678,16 +10710,16 @@
         <v>27</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="10"/>
@@ -10709,16 +10741,16 @@
         <v>27</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="10"/>
@@ -10740,16 +10772,16 @@
         <v>27</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="10"/>
@@ -10771,16 +10803,16 @@
         <v>27</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="10"/>
@@ -10802,16 +10834,16 @@
         <v>27</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="10"/>
@@ -10833,16 +10865,16 @@
         <v>27</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H36" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="10"/>
@@ -10864,16 +10896,16 @@
         <v>27</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H37" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="10"/>
@@ -10895,16 +10927,16 @@
         <v>27</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="10"/>
@@ -10926,16 +10958,16 @@
         <v>27</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="10"/>
@@ -10957,16 +10989,16 @@
         <v>27</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="H40" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="10"/>
@@ -10988,16 +11020,16 @@
         <v>27</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="10"/>
@@ -11019,16 +11051,16 @@
         <v>27</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="H42" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="10"/>
@@ -11050,16 +11082,16 @@
         <v>27</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="10"/>
@@ -11081,16 +11113,16 @@
         <v>27</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="H44" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="10"/>
@@ -11112,16 +11144,16 @@
         <v>27</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="10"/>
@@ -11143,16 +11175,16 @@
         <v>27</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="10"/>
@@ -11174,16 +11206,16 @@
         <v>27</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="10"/>
@@ -11205,16 +11237,16 @@
         <v>27</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H48" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="10"/>
@@ -11236,16 +11268,16 @@
         <v>27</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="10"/>
@@ -11261,10 +11293,10 @@
         <v>15</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -11283,11 +11315,11 @@
         <v>15</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -11306,11 +11338,11 @@
         <v>15</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -11329,11 +11361,11 @@
         <v>15</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
@@ -11352,11 +11384,11 @@
         <v>15</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -13209,11 +13241,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13288,13 +13320,13 @@
         <v>27</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>173</v>
+        <v>331</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>25</v>
@@ -13306,7 +13338,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="24">
-        <f t="shared" ref="K2:K43" si="0">IF(I2=0,0,J2/I2)</f>
+        <f t="shared" ref="K2:K42" si="0">IF(I2=0,0,J2/I2)</f>
         <v>2.5</v>
       </c>
       <c r="L2" s="21" t="s">
@@ -13330,13 +13362,13 @@
         <v>27</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>171</v>
+        <v>332</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>25</v>
@@ -13358,7 +13390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -13372,13 +13404,13 @@
         <v>27</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>134</v>
+        <v>334</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>145</v>
+        <v>335</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>146</v>
+        <v>336</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>26</v>
@@ -13400,34 +13432,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
-        <v>3.1</v>
+    <row r="5" spans="1:13" s="19" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>166</v>
+      </c>
       <c r="F5" s="22" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="22"/>
+        <v>167</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="I5" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="23">
         <v>5</v>
       </c>
       <c r="K5" s="24">
         <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="L5" s="21" t="s">
         <v>116</v>
@@ -13436,9 +13474,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>15</v>
@@ -13450,13 +13488,13 @@
         <v>27</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>26</v>
@@ -13478,7 +13516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="19" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>144</v>
       </c>
@@ -13492,7 +13530,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>147</v>
@@ -13510,7 +13548,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="24">
-        <f t="shared" si="0"/>
+        <f>IF(I7=0,0,J7/I7)</f>
         <v>2.5</v>
       </c>
       <c r="L7" s="21" t="s">
@@ -13522,7 +13560,7 @@
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>15</v>
@@ -13534,13 +13572,13 @@
         <v>27</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>26</v>
@@ -13564,7 +13602,7 @@
     </row>
     <row r="9" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>15</v>
@@ -13576,13 +13614,13 @@
         <v>27</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F9" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>137</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>138</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>26</v>
@@ -13604,9 +13642,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>15</v>
@@ -13618,13 +13656,13 @@
         <v>27</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>26</v>
@@ -13646,9 +13684,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>15</v>
@@ -13660,13 +13698,13 @@
         <v>27</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>26</v>
@@ -13688,9 +13726,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="28" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>15</v>
@@ -13702,37 +13740,24 @@
         <v>27</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="22">
-        <v>2</v>
-      </c>
-      <c r="J12" s="23">
-        <v>5</v>
-      </c>
-      <c r="K12" s="24">
-        <f>IF(I12=0,0,J12/I12)</f>
-        <v>2.5</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="M12" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="28" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:13" s="19" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>15</v>
@@ -13744,24 +13769,37 @@
         <v>27</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="1:13" s="19" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="22">
+        <v>2</v>
+      </c>
+      <c r="J13" s="23">
+        <v>5</v>
+      </c>
+      <c r="K13" s="24">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>15</v>
@@ -13773,13 +13811,13 @@
         <v>27</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>26</v>
@@ -13801,9 +13839,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>139</v>
+    <row r="15" spans="1:13" s="20" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="21">
+        <v>3.5</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>15</v>
@@ -13812,16 +13850,16 @@
         <v>16</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>26</v>
@@ -13830,22 +13868,22 @@
         <v>2</v>
       </c>
       <c r="J15" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15" s="24">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="L15" s="21" t="s">
+        <f>IF(I15=0,0,J15/I15)</f>
+        <v>1.5</v>
+      </c>
+      <c r="L15" s="22" t="s">
         <v>116</v>
       </c>
       <c r="M15" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="20" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>15</v>
@@ -13854,16 +13892,16 @@
         <v>16</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>26</v>
@@ -13872,22 +13910,22 @@
         <v>2</v>
       </c>
       <c r="J16" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16" s="24">
         <f>IF(I16=0,0,J16/I16)</f>
-        <v>1.5</v>
-      </c>
-      <c r="L16" s="22" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="21" t="s">
         <v>116</v>
       </c>
       <c r="M16" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>15</v>
@@ -13896,19 +13934,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>131</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" s="22">
         <v>2</v>
@@ -13927,9 +13965,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="28" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>15</v>
@@ -13938,16 +13976,16 @@
         <v>16</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>25</v>
@@ -13969,9 +14007,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="28" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
-        <v>3.8</v>
+    <row r="19" spans="1:13" s="28" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="22">
+        <v>3.9</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>15</v>
@@ -13980,16 +14018,16 @@
         <v>16</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>177</v>
       </c>
       <c r="F19" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>176</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>178</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>25</v>
@@ -14011,40 +14049,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="28" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="22">
-        <v>3.9</v>
-      </c>
-      <c r="B20" s="21" t="s">
+    <row r="20" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>4</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I20" s="22">
         <v>2</v>
       </c>
       <c r="J20" s="23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K20" s="24">
-        <f>IF(I20=0,0,J20/I20)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
       <c r="L20" s="21" t="s">
         <v>116</v>
@@ -14055,7 +14093,7 @@
     </row>
     <row r="21" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>15</v>
@@ -14064,29 +14102,29 @@
         <v>16</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J21" s="23">
         <v>5</v>
       </c>
       <c r="K21" s="24">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="L21" s="21" t="s">
         <v>116</v>
@@ -14095,9 +14133,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>15</v>
@@ -14109,13 +14147,13 @@
         <v>29</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H22" s="22" t="s">
         <v>25</v>
@@ -14127,7 +14165,7 @@
         <v>5</v>
       </c>
       <c r="K22" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K22:K26" si="1">IF(I22=0,0,J22/I22)</f>
         <v>1</v>
       </c>
       <c r="L22" s="21" t="s">
@@ -14137,9 +14175,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="27" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>15</v>
@@ -14151,13 +14189,13 @@
         <v>29</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H23" s="22" t="s">
         <v>25</v>
@@ -14169,7 +14207,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="24">
-        <f t="shared" ref="K23:K27" si="1">IF(I23=0,0,J23/I23)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L23" s="21" t="s">
@@ -14179,40 +14217,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="27" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="28" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
-        <v>5.2</v>
-      </c>
-      <c r="B24" s="22" t="s">
+        <v>5.3</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I24" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J24" s="23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K24" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L24" s="21" t="s">
         <v>116</v>
@@ -14221,51 +14259,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="28" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
-        <v>5.3</v>
-      </c>
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="1:13" s="29" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="31">
+        <v>6</v>
+      </c>
+      <c r="B25" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="22">
+      <c r="D25" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32">
         <v>2</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="33">
         <v>1</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="34">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="M25" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="29" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M25" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="29" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A26" s="31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>15</v>
@@ -14277,13 +14313,13 @@
         <v>31</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H26" s="32"/>
       <c r="I26" s="32">
@@ -14303,27 +14339,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="29" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A27" s="31">
-        <v>7</v>
-      </c>
-      <c r="B27" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="32" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="32">
@@ -14333,7 +14369,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(I27=0,0,J27/I27)</f>
         <v>0.5</v>
       </c>
       <c r="L27" s="31" t="s">
@@ -14343,9 +14379,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>15</v>
@@ -14357,13 +14393,13 @@
         <v>31</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="32">
@@ -14383,9 +14419,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="29" customFormat="1" ht="357" x14ac:dyDescent="0.2">
       <c r="A29" s="31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>15</v>
@@ -14397,13 +14433,13 @@
         <v>31</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32">
@@ -14413,7 +14449,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="34">
-        <f>IF(I29=0,0,J29/I29)</f>
+        <f t="shared" ref="K29:K30" si="2">IF(I29=0,0,J29/I29)</f>
         <v>0.5</v>
       </c>
       <c r="L29" s="31" t="s">
@@ -14423,9 +14459,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="29" customFormat="1" ht="357" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="29" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A30" s="31">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>15</v>
@@ -14437,13 +14473,13 @@
         <v>31</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="32">
@@ -14453,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="34">
-        <f t="shared" ref="K30:K31" si="2">IF(I30=0,0,J30/I30)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="L30" s="31" t="s">
@@ -14463,9 +14499,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="29" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="29" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A31" s="31">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>15</v>
@@ -14477,13 +14513,13 @@
         <v>31</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="32">
@@ -14493,7 +14529,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K31:K32" si="3">IF(I31=0,0,J31/I31)</f>
         <v>0.5</v>
       </c>
       <c r="L31" s="31" t="s">
@@ -14503,9 +14539,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="29" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="35" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A32" s="31">
-        <v>11.1</v>
+        <v>12</v>
       </c>
       <c r="B32" s="32" t="s">
         <v>15</v>
@@ -14517,13 +14553,13 @@
         <v>31</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H32" s="32"/>
       <c r="I32" s="32">
@@ -14533,7 +14569,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="34">
-        <f t="shared" ref="K32:K33" si="3">IF(I32=0,0,J32/I32)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="L32" s="31" t="s">
@@ -14545,7 +14581,7 @@
     </row>
     <row r="33" spans="1:13" s="35" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" s="31">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>15</v>
@@ -14557,13 +14593,13 @@
         <v>31</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H33" s="32"/>
       <c r="I33" s="32">
@@ -14573,7 +14609,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K33" si="4">IF(I33=0,0,J33/I33)</f>
         <v>0.5</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -14583,9 +14619,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="35" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="35" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="31">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="B34" s="32" t="s">
         <v>15</v>
@@ -14597,13 +14633,13 @@
         <v>31</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H34" s="32"/>
       <c r="I34" s="32">
@@ -14613,7 +14649,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="34">
-        <f t="shared" ref="K34" si="4">IF(I34=0,0,J34/I34)</f>
+        <f t="shared" ref="K34" si="5">IF(I34=0,0,J34/I34)</f>
         <v>0.5</v>
       </c>
       <c r="L34" s="31" t="s">
@@ -14623,125 +14659,119 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="35" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A35" s="31">
-        <v>12.2</v>
-      </c>
-      <c r="B35" s="32" t="s">
+    <row r="35" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" s="36" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32">
-        <v>2</v>
-      </c>
-      <c r="J35" s="33">
-        <v>1</v>
-      </c>
-      <c r="K35" s="34">
-        <f t="shared" ref="K35" si="5">IF(I35=0,0,J35/I35)</f>
-        <v>0.5</v>
-      </c>
-      <c r="L35" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="M35" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="10"/>
       <c r="K36" s="30"/>
-      <c r="L36" s="6"/>
+      <c r="L36" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" s="36" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>193</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="30"/>
+      <c r="I37" s="7">
+        <v>13</v>
+      </c>
+      <c r="J37" s="10">
+        <v>5</v>
+      </c>
+      <c r="K37" s="11">
+        <f>IF(I37=0,0,J37/I37)</f>
+        <v>0.38461538461538464</v>
+      </c>
       <c r="L37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
+    <row r="38" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>7</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7">
-        <v>13</v>
-      </c>
-      <c r="J38" s="10">
-        <v>5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="10"/>
       <c r="K38" s="11">
-        <f>IF(I38=0,0,J38/I38)</f>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>15</v>
@@ -14753,16 +14783,16 @@
         <v>31</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="10"/>
@@ -14773,9 +14803,9 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>15</v>
@@ -14787,13 +14817,13 @@
         <v>31</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>37</v>
@@ -14807,9 +14837,9 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>15</v>
@@ -14821,16 +14851,16 @@
         <v>31</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="10"/>
@@ -14841,9 +14871,9 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>15</v>
@@ -14855,16 +14885,16 @@
         <v>31</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="10"/>
@@ -14877,7 +14907,7 @@
     </row>
     <row r="43" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>15</v>
@@ -14889,29 +14919,26 @@
         <v>31</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="10"/>
-      <c r="K43" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K43" s="11"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
     <row r="44" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>15</v>
@@ -14923,13 +14950,13 @@
         <v>31</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>45</v>
@@ -14940,9 +14967,9 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>15</v>
@@ -14954,13 +14981,13 @@
         <v>31</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>45</v>
@@ -14971,9 +14998,9 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>15</v>
@@ -14985,16 +15012,16 @@
         <v>31</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="10"/>
@@ -15004,7 +15031,7 @@
     </row>
     <row r="47" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>15</v>
@@ -15016,16 +15043,16 @@
         <v>31</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="10"/>
@@ -15033,9 +15060,9 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>15</v>
@@ -15047,16 +15074,16 @@
         <v>31</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="10"/>
@@ -15066,7 +15093,7 @@
     </row>
     <row r="49" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>15</v>
@@ -15078,16 +15105,16 @@
         <v>31</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="10"/>
@@ -15095,9 +15122,9 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>15</v>
@@ -15109,16 +15136,16 @@
         <v>31</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="10"/>
@@ -15126,9 +15153,9 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="18" customFormat="1" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>15</v>
@@ -15140,16 +15167,16 @@
         <v>31</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="10"/>
@@ -15157,9 +15184,9 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" s="18" customFormat="1" ht="331.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>15</v>
@@ -15171,13 +15198,13 @@
         <v>31</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>79</v>
@@ -15190,7 +15217,7 @@
     </row>
     <row r="53" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>15</v>
@@ -15202,13 +15229,13 @@
         <v>31</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>79</v>
@@ -15219,9 +15246,9 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="18" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>15</v>
@@ -15233,13 +15260,13 @@
         <v>31</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>79</v>
@@ -15250,9 +15277,9 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" s="18" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="18" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>15</v>
@@ -15264,13 +15291,13 @@
         <v>31</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>79</v>
@@ -15281,9 +15308,9 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="1:13" s="18" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>15</v>
@@ -15295,13 +15322,13 @@
         <v>31</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>79</v>
@@ -15312,9 +15339,9 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>15</v>
@@ -15326,13 +15353,13 @@
         <v>31</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>79</v>
@@ -15343,9 +15370,9 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>15</v>
@@ -15357,13 +15384,13 @@
         <v>31</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>79</v>
@@ -15376,7 +15403,7 @@
     </row>
     <row r="59" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>15</v>
@@ -15388,13 +15415,13 @@
         <v>31</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>79</v>
@@ -15407,7 +15434,7 @@
     </row>
     <row r="60" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>15</v>
@@ -15419,13 +15446,13 @@
         <v>31</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>79</v>
@@ -15438,7 +15465,7 @@
     </row>
     <row r="61" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>15</v>
@@ -15450,13 +15477,13 @@
         <v>31</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>79</v>
@@ -15467,27 +15494,25 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="C62" s="6"/>
       <c r="D62" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>79</v>
@@ -15498,29 +15523,15 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
     </row>
-    <row r="63" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
-        <v>31</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>15</v>
-      </c>
+    <row r="63" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>79</v>
-      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="10"/>
       <c r="K63" s="11"/>
@@ -15530,7 +15541,7 @@
     <row r="64" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
+      <c r="C64"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -15542,41 +15553,26 @@
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:M63">
+  <autoFilter ref="A1:M62">
     <sortState ref="A2:O24">
       <sortCondition ref="K1"/>
     </sortState>
   </autoFilter>
   <dataValidations xWindow="1023" yWindow="304" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J64">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L64">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I64">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B64">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C63">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15620,7 +15616,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>80</v>
@@ -15629,7 +15625,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>17</v>
@@ -15655,11 +15651,11 @@
         <v>16</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E2" s="42"/>
       <c r="F2" s="42" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G2" s="42">
         <v>2</v>
@@ -15672,7 +15668,7 @@
         <v>2.5</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K2" s="45">
         <v>44664</v>
@@ -15689,11 +15685,11 @@
         <v>16</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="42" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G3" s="42">
         <v>2</v>
@@ -15706,7 +15702,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K3" s="45">
         <v>44664</v>
@@ -15723,11 +15719,11 @@
         <v>16</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="42" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G4" s="42">
         <v>2</v>
@@ -15740,7 +15736,7 @@
         <v>2.5</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K4" s="45">
         <v>44664</v>
@@ -15757,11 +15753,11 @@
         <v>16</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="42" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G5" s="42">
         <v>2</v>
@@ -15774,7 +15770,7 @@
         <v>2.5</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K5" s="45">
         <v>44664</v>
@@ -15791,11 +15787,11 @@
         <v>16</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="42" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G6" s="42">
         <v>2</v>
@@ -15808,7 +15804,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K6" s="45">
         <v>44664</v>
